--- a/biology/Zoologie/Gerbillus_pusillus/Gerbillus_pusillus.xlsx
+++ b/biology/Zoologie/Gerbillus_pusillus/Gerbillus_pusillus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Gerbillus pusillus, ou Gerbillus (Hendecapleura) pusillus, est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés présente au Sud du Soudan, Sud ouest de l’Éthiopie et Kenya. Elle est appelée en français Kigogo[1] ou Mogulla[2]. Nom local : Mbadya kigogo.
-Synonymes[3] :
-Gerbillus diminutus Dollman, 1911, une autre espèce pour Catalogueoflife[4] et ITIS[5]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Gerbillus pusillus, ou Gerbillus (Hendecapleura) pusillus, est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés présente au Sud du Soudan, Sud ouest de l’Éthiopie et Kenya. Elle est appelée en français Kigogo ou Mogulla. Nom local : Mbadya kigogo.
+Synonymes :
+Gerbillus diminutus Dollman, 1911, une autre espèce pour Catalogueoflife et ITIS
 Gerbillus percivali Dollman, 1914
 Gerbillus ruberrimus Rhoads, 1896</t>
         </is>
